--- a/data/download_SZ159928.xlsx
+++ b/data/download_SZ159928.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2820"/>
+  <dimension ref="A1:F2822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68121,6 +68121,54 @@
         <v>0.821</v>
       </c>
     </row>
+    <row r="2821">
+      <c r="A2821" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2821" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="D2821" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="E2821" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="F2821" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2822" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2822" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="E2822" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="F2822" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159928.xlsx
+++ b/data/download_SZ159928.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2822"/>
+  <dimension ref="A1:F2827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68169,6 +68169,126 @@
         <v>0.8179999999999999</v>
       </c>
     </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2823" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="D2823" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2823" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="F2823" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2824" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D2824" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="E2824" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="F2824" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2825" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="D2825" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="E2825" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="F2825" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2826" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="D2826" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2826" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F2826" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>SZ159928</t>
+        </is>
+      </c>
+      <c r="C2827" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2827" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E2827" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="F2827" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
